--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1174.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1174.xlsx
@@ -354,7 +354,7 @@
         <v>2.131220200833968</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.077364248204987</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1174.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1174.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.080019264646281</v>
+        <v>1.166306018829346</v>
       </c>
       <c r="B1">
-        <v>2.131220200833968</v>
+        <v>2.437157869338989</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.077364248204987</v>
+        <v>2.36808443069458</v>
       </c>
       <c r="E1">
-        <v>1.136487167908089</v>
+        <v>1.234535813331604</v>
       </c>
     </row>
   </sheetData>
